--- a/natmiOut/OldD7/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.632867809199</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H2">
-        <v>1.632867809199</v>
+        <v>5.025688</v>
       </c>
       <c r="I2">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J2">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.1650061772661</v>
+        <v>30.38232766666667</v>
       </c>
       <c r="N2">
-        <v>30.1650061772661</v>
+        <v>91.14698300000001</v>
       </c>
       <c r="O2">
-        <v>0.4512767160436088</v>
+        <v>0.4410933377331532</v>
       </c>
       <c r="P2">
-        <v>0.4512767160436088</v>
+        <v>0.4410933377331531</v>
       </c>
       <c r="Q2">
-        <v>49.2554675511468</v>
+        <v>50.89736652214489</v>
       </c>
       <c r="R2">
-        <v>49.2554675511468</v>
+        <v>458.076298699304</v>
       </c>
       <c r="S2">
-        <v>0.135826703334255</v>
+        <v>0.1200234705666825</v>
       </c>
       <c r="T2">
-        <v>0.135826703334255</v>
+        <v>0.1200234705666824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.632867809199</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H3">
-        <v>1.632867809199</v>
+        <v>5.025688</v>
       </c>
       <c r="I3">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J3">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.5810576617914</v>
+        <v>22.690535</v>
       </c>
       <c r="N3">
-        <v>22.5810576617914</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O3">
-        <v>0.3378187787040645</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="P3">
-        <v>0.3378187787040645</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="Q3">
-        <v>36.87188215360562</v>
+        <v>38.01184982102667</v>
       </c>
       <c r="R3">
-        <v>36.87188215360562</v>
+        <v>342.10664838924</v>
       </c>
       <c r="S3">
-        <v>0.1016777719844585</v>
+        <v>0.08963752842092791</v>
       </c>
       <c r="T3">
-        <v>0.1016777719844585</v>
+        <v>0.08963752842092791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.632867809199</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H4">
-        <v>1.632867809199</v>
+        <v>5.025688</v>
       </c>
       <c r="I4">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J4">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>14.097637829679</v>
+        <v>0.09645133333333333</v>
       </c>
       <c r="N4">
-        <v>14.097637829679</v>
+        <v>0.289354</v>
       </c>
       <c r="O4">
-        <v>0.2109045052523268</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="P4">
-        <v>0.2109045052523268</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="Q4">
-        <v>23.01957899782889</v>
+        <v>0.1615781028391111</v>
       </c>
       <c r="R4">
-        <v>23.01957899782889</v>
+        <v>1.454202925552</v>
       </c>
       <c r="S4">
-        <v>0.06347870973249455</v>
+        <v>0.0003810249133792156</v>
       </c>
       <c r="T4">
-        <v>0.06347870973249455</v>
+        <v>0.0003810249133792155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.28154787218102</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H5">
-        <v>2.28154787218102</v>
+        <v>5.025688</v>
       </c>
       <c r="I5">
-        <v>0.42055305490572</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J5">
-        <v>0.42055305490572</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.1650061772661</v>
+        <v>15.71027466666667</v>
       </c>
       <c r="N5">
-        <v>30.1650061772661</v>
+        <v>47.130824</v>
       </c>
       <c r="O5">
-        <v>0.4512767160436088</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="P5">
-        <v>0.4512767160436088</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="Q5">
-        <v>68.82290565806879</v>
+        <v>26.31831295632355</v>
       </c>
       <c r="R5">
-        <v>68.82290565806879</v>
+        <v>236.864816606912</v>
       </c>
       <c r="S5">
-        <v>0.1897858015399609</v>
+        <v>0.06206244991287852</v>
       </c>
       <c r="T5">
-        <v>0.1897858015399609</v>
+        <v>0.06206244991287852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.28154787218102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H6">
-        <v>2.28154787218102</v>
+        <v>7.300612</v>
       </c>
       <c r="I6">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J6">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.5810576617914</v>
+        <v>30.38232766666667</v>
       </c>
       <c r="N6">
-        <v>22.5810576617914</v>
+        <v>91.14698300000001</v>
       </c>
       <c r="O6">
-        <v>0.3378187787040645</v>
+        <v>0.4410933377331532</v>
       </c>
       <c r="P6">
-        <v>0.3378187787040645</v>
+        <v>0.4410933377331531</v>
       </c>
       <c r="Q6">
-        <v>51.5197640598571</v>
+        <v>73.93652865039955</v>
       </c>
       <c r="R6">
-        <v>51.5197640598571</v>
+        <v>665.428757853596</v>
       </c>
       <c r="S6">
-        <v>0.1420707193885137</v>
+        <v>0.1743532008952344</v>
       </c>
       <c r="T6">
-        <v>0.1420707193885137</v>
+        <v>0.1743532008952344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.28154787218102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H7">
-        <v>2.28154787218102</v>
+        <v>7.300612</v>
       </c>
       <c r="I7">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J7">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.097637829679</v>
+        <v>22.690535</v>
       </c>
       <c r="N7">
-        <v>14.097637829679</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O7">
-        <v>0.2109045052523268</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="P7">
-        <v>0.2109045052523268</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="Q7">
-        <v>32.16443559308278</v>
+        <v>55.21826403580666</v>
       </c>
       <c r="R7">
-        <v>32.16443559308278</v>
+        <v>496.96437632226</v>
       </c>
       <c r="S7">
-        <v>0.0886965339772455</v>
+        <v>0.1302127819395409</v>
       </c>
       <c r="T7">
-        <v>0.0886965339772455</v>
+        <v>0.1302127819395409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.567267102381102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H8">
-        <v>0.567267102381102</v>
+        <v>7.300612</v>
       </c>
       <c r="I8">
-        <v>0.1045631852667785</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J8">
-        <v>0.1045631852667785</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>30.1650061772661</v>
+        <v>0.09645133333333333</v>
       </c>
       <c r="N8">
-        <v>30.1650061772661</v>
+        <v>0.289354</v>
       </c>
       <c r="O8">
-        <v>0.4512767160436088</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="P8">
-        <v>0.4512767160436088</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="Q8">
-        <v>17.11161564748578</v>
+        <v>0.2347179205164444</v>
       </c>
       <c r="R8">
-        <v>17.11161564748578</v>
+        <v>2.112461284648</v>
       </c>
       <c r="S8">
-        <v>0.04718693086625126</v>
+        <v>0.0005534993527085768</v>
       </c>
       <c r="T8">
-        <v>0.04718693086625126</v>
+        <v>0.0005534993527085767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.567267102381102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H9">
-        <v>0.567267102381102</v>
+        <v>7.300612</v>
       </c>
       <c r="I9">
-        <v>0.1045631852667785</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J9">
-        <v>0.1045631852667785</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.5810576617914</v>
+        <v>15.71027466666667</v>
       </c>
       <c r="N9">
-        <v>22.5810576617914</v>
+        <v>47.130824</v>
       </c>
       <c r="O9">
-        <v>0.3378187787040645</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="P9">
-        <v>0.3378187787040645</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="Q9">
-        <v>12.80949114850499</v>
+        <v>38.23153991825421</v>
       </c>
       <c r="R9">
-        <v>12.80949114850499</v>
+        <v>344.083859264288</v>
       </c>
       <c r="S9">
-        <v>0.03532340754422994</v>
+        <v>0.09015558995770528</v>
       </c>
       <c r="T9">
-        <v>0.03532340754422994</v>
+        <v>0.09015558995770528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.567267102381102</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H10">
-        <v>0.567267102381102</v>
+        <v>2.780482</v>
       </c>
       <c r="I10">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J10">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.097637829679</v>
+        <v>30.38232766666667</v>
       </c>
       <c r="N10">
-        <v>14.097637829679</v>
+        <v>91.14698300000001</v>
       </c>
       <c r="O10">
-        <v>0.2109045052523268</v>
+        <v>0.4410933377331532</v>
       </c>
       <c r="P10">
-        <v>0.2109045052523268</v>
+        <v>0.4410933377331531</v>
       </c>
       <c r="Q10">
-        <v>7.997126162060214</v>
+        <v>28.15917173175622</v>
       </c>
       <c r="R10">
-        <v>7.997126162060214</v>
+        <v>253.432545585806</v>
       </c>
       <c r="S10">
-        <v>0.0220528468562973</v>
+        <v>0.06640346545352406</v>
       </c>
       <c r="T10">
-        <v>0.0220528468562973</v>
+        <v>0.06640346545352405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.943430280017477</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H11">
-        <v>0.943430280017477</v>
+        <v>2.780482</v>
       </c>
       <c r="I11">
-        <v>0.1739005747762935</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J11">
-        <v>0.1739005747762935</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.1650061772661</v>
+        <v>22.690535</v>
       </c>
       <c r="N11">
-        <v>30.1650061772661</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O11">
-        <v>0.4512767160436088</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="P11">
-        <v>0.4512767160436088</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="Q11">
-        <v>28.45858022454708</v>
+        <v>21.03020804595667</v>
       </c>
       <c r="R11">
-        <v>28.45858022454708</v>
+        <v>189.27187241361</v>
       </c>
       <c r="S11">
-        <v>0.07847728030314176</v>
+        <v>0.04959232134960995</v>
       </c>
       <c r="T11">
-        <v>0.07847728030314176</v>
+        <v>0.04959232134960995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.943430280017477</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H12">
-        <v>0.943430280017477</v>
+        <v>2.780482</v>
       </c>
       <c r="I12">
-        <v>0.1739005747762935</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J12">
-        <v>0.1739005747762935</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>22.5810576617914</v>
+        <v>0.09645133333333333</v>
       </c>
       <c r="N12">
-        <v>22.5810576617914</v>
+        <v>0.289354</v>
       </c>
       <c r="O12">
-        <v>0.3378187787040645</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="P12">
-        <v>0.3378187787040645</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="Q12">
-        <v>21.30365355295466</v>
+        <v>0.08939373206977778</v>
       </c>
       <c r="R12">
-        <v>21.30365355295466</v>
+        <v>0.804543588628</v>
       </c>
       <c r="S12">
-        <v>0.05874687978686231</v>
+        <v>0.000210803558279477</v>
       </c>
       <c r="T12">
-        <v>0.05874687978686231</v>
+        <v>0.000210803558279477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.943430280017477</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H13">
-        <v>0.943430280017477</v>
+        <v>2.780482</v>
       </c>
       <c r="I13">
-        <v>0.1739005747762935</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J13">
-        <v>0.1739005747762935</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.097637829679</v>
+        <v>15.71027466666667</v>
       </c>
       <c r="N13">
-        <v>14.097637829679</v>
+        <v>47.130824</v>
       </c>
       <c r="O13">
-        <v>0.2109045052523268</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="P13">
-        <v>0.2109045052523268</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="Q13">
-        <v>13.30013840523904</v>
+        <v>14.56071197524089</v>
       </c>
       <c r="R13">
-        <v>13.30013840523904</v>
+        <v>131.046407777168</v>
       </c>
       <c r="S13">
-        <v>0.03667641468628944</v>
+        <v>0.03433629880300176</v>
       </c>
       <c r="T13">
-        <v>0.03667641468628944</v>
+        <v>0.03433629880300176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.120972666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.362918</v>
+      </c>
+      <c r="I14">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="J14">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.38232766666667</v>
+      </c>
+      <c r="N14">
+        <v>91.14698300000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4410933377331532</v>
+      </c>
+      <c r="P14">
+        <v>0.4410933377331531</v>
+      </c>
+      <c r="Q14">
+        <v>34.05775886404378</v>
+      </c>
+      <c r="R14">
+        <v>306.519829776394</v>
+      </c>
+      <c r="S14">
+        <v>0.08031320081771225</v>
+      </c>
+      <c r="T14">
+        <v>0.08031320081771225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.120972666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.362918</v>
+      </c>
+      <c r="I15">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="J15">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.690535</v>
+      </c>
+      <c r="N15">
+        <v>68.07160500000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="P15">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="Q15">
+        <v>25.43546952704333</v>
+      </c>
+      <c r="R15">
+        <v>228.91922574339</v>
+      </c>
+      <c r="S15">
+        <v>0.05998057535649846</v>
+      </c>
+      <c r="T15">
+        <v>0.05998057535649848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.120972666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.362918</v>
+      </c>
+      <c r="I16">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="J16">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09645133333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.289354</v>
+      </c>
+      <c r="O16">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="P16">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="Q16">
+        <v>0.1081193083302222</v>
+      </c>
+      <c r="R16">
+        <v>0.973073774972</v>
+      </c>
+      <c r="S16">
+        <v>0.0002549612191706697</v>
+      </c>
+      <c r="T16">
+        <v>0.0002549612191706697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.120972666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.362918</v>
+      </c>
+      <c r="I17">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="J17">
+        <v>0.1820775648765275</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.71027466666667</v>
+      </c>
+      <c r="N17">
+        <v>47.130824</v>
+      </c>
+      <c r="O17">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="P17">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="Q17">
+        <v>17.61078848715911</v>
+      </c>
+      <c r="R17">
+        <v>158.497096384432</v>
+      </c>
+      <c r="S17">
+        <v>0.04152882748314611</v>
+      </c>
+      <c r="T17">
+        <v>0.04152882748314612</v>
       </c>
     </row>
   </sheetData>
